--- a/data/trans_camb/P08_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P08_2_R-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.270798889889667</v>
+        <v>-1.587465716501938</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.776446684688622</v>
+        <v>-1.787107187740066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6647884237301287</v>
+        <v>-0.3799072663695258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.117545793429693</v>
+        <v>-0.9659164072390012</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.44354072212042</v>
+        <v>-2.350763632409559</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.888409126769381</v>
+        <v>-4.829197389721444</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0699183894555192</v>
+        <v>0.2683504970377205</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.096251858789437</v>
+        <v>-0.9539836553834349</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.142590908696728</v>
+        <v>-1.458762114824808</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.534338015768883</v>
+        <v>6.608467636519011</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.86979839479895</v>
+        <v>5.502704060837158</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.079742352378056</v>
+        <v>7.273088085277959</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.545976162916455</v>
+        <v>8.489536681172437</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.886270830164055</v>
+        <v>7.131519634404877</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.009037329751032</v>
+        <v>2.887904068200175</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.153186048625424</v>
+        <v>6.244143407810122</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.769390385711135</v>
+        <v>4.755775640367895</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.182269692258594</v>
+        <v>3.867084832655831</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08537730621865802</v>
+        <v>-0.1006984609433099</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1163019553534429</v>
+        <v>-0.1204722955294654</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.04554643177401835</v>
+        <v>-0.0359360289494987</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.04532145972616106</v>
+        <v>-0.04029541149671963</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0978681694737714</v>
+        <v>-0.09103669398299732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1906792116992405</v>
+        <v>-0.1858027936359586</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.002716050979653444</v>
+        <v>0.01016846243169042</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05148879849011408</v>
+        <v>-0.05083903245288295</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.05762603900704157</v>
+        <v>-0.07261909829669785</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5409638562036894</v>
+        <v>0.5466313099487559</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4910083169961821</v>
+        <v>0.4553315354424891</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.599449299778326</v>
+        <v>0.5910741328809178</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4032852892606507</v>
+        <v>0.4072141142011695</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3288834666531378</v>
+        <v>0.3411557639683591</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1494000113116631</v>
+        <v>0.1388888375164747</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3583033634375127</v>
+        <v>0.3629735651315562</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2765972140017269</v>
+        <v>0.2768183513807159</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2487287355950788</v>
+        <v>0.2295464485044312</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.364826397594254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.9585821369594461</v>
+        <v>-0.9585821369594447</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.603959019205199</v>
@@ -869,7 +869,7 @@
         <v>1.484879051622101</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.3640972770403206</v>
+        <v>-0.3640972770403178</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.053139773294072</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.109041382605965</v>
+        <v>0.1702645287512531</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.689526076031145</v>
+        <v>-1.840042794357895</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.04749165043028</v>
+        <v>-3.884737533446995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.815155672502628</v>
+        <v>-1.183094124216265</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.012225436439923</v>
+        <v>-2.394753380067482</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.983167615114525</v>
+        <v>-3.966277388441287</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4233879360083369</v>
+        <v>0.706588505031076</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.373708383312182</v>
+        <v>-1.05185177121905</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.00920037756827</v>
+        <v>-2.76772410668803</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.526495715057351</v>
+        <v>6.5354064258447</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.323984507217238</v>
+        <v>4.342285026937483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.75840634571122</v>
+        <v>2.071515306914053</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.38958493282758</v>
+        <v>6.511504504453443</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.58631946639329</v>
+        <v>5.23866672681206</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.909147266487951</v>
+        <v>3.058646380968778</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.41386700304467</v>
+        <v>5.72297611625053</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.719991802909143</v>
+        <v>4.127139517707464</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.495240646523259</v>
+        <v>1.503034538415231</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1053412815307783</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.07398616478829248</v>
+        <v>-0.07398616478829237</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1144609560996561</v>
@@ -974,7 +974,7 @@
         <v>0.06527010397916827</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.01600444635877443</v>
+        <v>-0.0160044463587743</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1708554668933766</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.008592156097231633</v>
+        <v>0.01495798822431629</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1173246919702985</v>
+        <v>-0.1257377656639628</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2740011016449757</v>
+        <v>-0.2638734736689499</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07218153139358313</v>
+        <v>-0.04567350657563396</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08393605641994417</v>
+        <v>-0.09763455706614478</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1578463840343502</v>
+        <v>-0.1587285932203381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02207077763088188</v>
+        <v>0.0359792552514961</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07461808518779886</v>
+        <v>-0.05466320186410374</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1563252799526531</v>
+        <v>-0.1448501138309989</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5602710106352257</v>
+        <v>0.5748258950326408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3713666989366497</v>
+        <v>0.389275147852136</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.148615462535402</v>
+        <v>0.189625499205566</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3140167598272597</v>
+        <v>0.308786797149161</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2767701593481874</v>
+        <v>0.2500897929750611</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1402628365769479</v>
+        <v>0.1478624327985361</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3178426569988997</v>
+        <v>0.3446342141115759</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2193479267591951</v>
+        <v>0.2487018366383075</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.09114945484062141</v>
+        <v>0.0921635570844416</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-2.40432233097628</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.5764046770721426</v>
+        <v>-0.5764046770721343</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.678710875225298</v>
+        <v>-7.06736813646082</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.722448608091375</v>
+        <v>-5.641077374903197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.499127940149067</v>
+        <v>-2.25765717631631</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.386181495513926</v>
+        <v>-5.832586631703203</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.457973761890544</v>
+        <v>-8.17131516995679</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.693813863436144</v>
+        <v>-6.986493566139353</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.422484928011726</v>
+        <v>-5.104904869507103</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.324502840409899</v>
+        <v>-5.255860010775939</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.591142532605034</v>
+        <v>-3.359957682170847</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.176846511383867</v>
+        <v>1.019964429344703</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.487210403500238</v>
+        <v>2.096805687870952</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.573029401087278</v>
+        <v>5.382768370099395</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.92736722402359</v>
+        <v>2.771654368122066</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.315990199963585</v>
+        <v>0.9259657957970003</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.247331408918061</v>
+        <v>1.16259943385276</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8142448484609556</v>
+        <v>0.8964554263814153</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7575247336477529</v>
+        <v>0.4554983246136454</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.188728614091499</v>
+        <v>2.265194386857524</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.1190306753523369</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.02853603990787859</v>
+        <v>-0.02853603990787818</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3877873789843834</v>
+        <v>-0.3993590981647435</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.331771123009667</v>
+        <v>-0.3122243628361262</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.144056156603683</v>
+        <v>-0.1229290337841923</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2367260978917145</v>
+        <v>-0.2165222356536524</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2751879660564409</v>
+        <v>-0.293720854687512</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2481858399867496</v>
+        <v>-0.2535540428561142</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2488097368252009</v>
+        <v>-0.2381461832767487</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2413537564994843</v>
+        <v>-0.2433719997419034</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1655548754724802</v>
+        <v>-0.1570720886992286</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09381642791724179</v>
+        <v>0.07916506561047028</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.182398923445248</v>
+        <v>0.1583407670678601</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4129122605438275</v>
+        <v>0.4063383495662943</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.125312016181144</v>
+        <v>0.1235545438898557</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06152433836321303</v>
+        <v>0.0403050354860931</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06131427798445789</v>
+        <v>0.05637797823926076</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04430370289006799</v>
+        <v>0.04796177332333541</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04557273518853682</v>
+        <v>0.02247181473057649</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1155993374779454</v>
+        <v>0.1255516801785061</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-1.92560965353751</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.318027306109273</v>
+        <v>1.318027306109268</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.705631331772985</v>
@@ -1306,7 +1306,7 @@
         <v>-0.7780394263757401</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.142278464266067</v>
+        <v>1.142278464266061</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7490609955413242</v>
+        <v>-0.4363167058915282</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.046709799082187</v>
+        <v>-2.680089785337334</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.46234709553125</v>
+        <v>-2.285531969995865</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7685104713316717</v>
+        <v>0.9422820512193435</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.588426534966017</v>
+        <v>-5.782350579232192</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.089354385010471</v>
+        <v>-2.243936357710405</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7368955220259387</v>
+        <v>1.323892232375385</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.113267862730644</v>
+        <v>-3.424900617878125</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.251094283050908</v>
+        <v>-1.421028990104092</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.576170313987888</v>
+        <v>6.317488047726624</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.469231502474877</v>
+        <v>3.682908891388539</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.841466927057988</v>
+        <v>3.922927738261357</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.278454378479347</v>
+        <v>8.628960265462631</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.847875848627526</v>
+        <v>1.86709120111489</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.556152869904597</v>
+        <v>4.364455662988425</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.194881031648152</v>
+        <v>6.38367303203219</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.640605172281703</v>
+        <v>1.580890877018212</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.379048497786309</v>
+        <v>3.424276558136198</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.08488803269496378</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05810354390793437</v>
+        <v>0.05810354390793413</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2002090561408828</v>
@@ -1411,7 +1411,7 @@
         <v>-0.0420361674566669</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.06171539279147498</v>
+        <v>0.06171539279147468</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04941099715354952</v>
+        <v>-0.03133090136348076</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1945288559575294</v>
+        <v>-0.1744717553347168</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1605361835477976</v>
+        <v>-0.1495825797840435</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.03235652722622285</v>
+        <v>0.03948298954338116</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2316942008787129</v>
+        <v>-0.2400334259651492</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0863984847406748</v>
+        <v>-0.09080357291350741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0376016980171994</v>
+        <v>0.0659423224669347</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.160735324595093</v>
+        <v>-0.172673925132917</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06788887551062994</v>
+        <v>-0.070599609064976</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.449024543124795</v>
+        <v>0.5044263223496355</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2754864870557907</v>
+        <v>0.2920128241392181</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3072853756777369</v>
+        <v>0.3200741294331116</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3962418954218359</v>
+        <v>0.4128208711638883</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0885965290979906</v>
+        <v>0.08790047093761949</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2211238799667274</v>
+        <v>0.2108689078933793</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3538318769474476</v>
+        <v>0.3693687662788375</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.09429134409997043</v>
+        <v>0.09243086973791589</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1932625224974714</v>
+        <v>0.2000829141202867</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.4334928327501819</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.4992937171806544</v>
+        <v>-0.4992937171806572</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.092315094180255</v>
@@ -1520,7 +1520,7 @@
         <v>0.08510254035779263</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.3139551999423396</v>
+        <v>0.3139551999423423</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1581050696815269</v>
+        <v>-0.1423471663206326</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.8994802976415732</v>
+        <v>-1.163993442820209</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5695309593905419</v>
+        <v>-0.6630481216488977</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4836446353306176</v>
+        <v>0.5082150063025971</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.447349073006445</v>
+        <v>-2.594965634245361</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.367119024233247</v>
+        <v>-2.335935437275999</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6657587892565595</v>
+        <v>0.6928073999880277</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.33240837426168</v>
+        <v>-1.287292278577941</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.9770202270397296</v>
+        <v>-0.8380382991878096</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.444955357956872</v>
+        <v>3.399180114791739</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.384273389599728</v>
+        <v>2.195306476988112</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.808053917322482</v>
+        <v>2.899688313651396</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.65006378544132</v>
+        <v>4.53464513612809</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.539066978414914</v>
+        <v>1.59746542058828</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.232200367506618</v>
+        <v>1.393310389844325</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.472455449146736</v>
+        <v>3.408399230572636</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.413853254238541</v>
+        <v>1.334863993945369</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.493992193123393</v>
+        <v>1.481215753715007</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.01864641437377282</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.02147679694196261</v>
+        <v>-0.02147679694196273</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1121326816569205</v>
@@ -1625,7 +1625,7 @@
         <v>0.00456086948504013</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.0168256868134204</v>
+        <v>0.01682568681342055</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.008761732311481108</v>
+        <v>-0.01044639556526036</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06236374526308006</v>
+        <v>-0.08078001923838951</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0390219283301245</v>
+        <v>-0.04479478059961021</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.02023115169467904</v>
+        <v>0.02106464300267355</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1016514051609937</v>
+        <v>-0.1042260655682608</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.09692460946326818</v>
+        <v>-0.09633001263006565</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03435867608649257</v>
+        <v>0.03572134683023525</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07047869518385257</v>
+        <v>-0.06596354096187858</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.04953530747030776</v>
+        <v>-0.04406949791432192</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2680769783113809</v>
+        <v>0.2581698237900249</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1809990681664386</v>
+        <v>0.1638719060583906</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2122892482515115</v>
+        <v>0.2235983409620098</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2115012429422967</v>
+        <v>0.2045280348781225</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06876660582684048</v>
+        <v>0.07388900245704812</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05391278193272558</v>
+        <v>0.06571734043068578</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1952626915159646</v>
+        <v>0.1903939491169195</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.07914669862767552</v>
+        <v>0.07443381852218976</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.08328715886519382</v>
+        <v>0.0822826334158348</v>
       </c>
     </row>
     <row r="34">
